--- a/工具/工作脚本/工资表.xlsx
+++ b/工具/工作脚本/工资表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="16035" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
-  <si>
-    <t>湖南天河国云科技有限公司</t>
-  </si>
-  <si>
-    <t>2018年3月工资明细表</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>金额单位（元）</t>
   </si>
@@ -130,10 +124,10 @@
     <t>综合部</t>
   </si>
   <si>
-    <t>zza1</t>
+    <t>b</t>
   </si>
   <si>
-    <t>何涛</t>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -141,16 +135,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
     <numFmt numFmtId="182" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="27">
@@ -205,9 +199,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,9 +227,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,31 +280,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,27 +293,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,17 +312,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,15 +335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,7 +352,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,19 +472,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +502,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,133 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,13 +781,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,21 +816,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,25 +836,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,17 +870,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,10 +886,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,133 +898,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,10 +1068,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,10 +1089,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,79 +1110,79 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,22 +1194,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3744,7 +3738,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:Z9"/>
+      <selection activeCell="A2" sqref="A2:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3754,9 +3748,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3784,9 +3776,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="22.5" spans="1:26">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3837,7 +3827,7 @@
       <c r="U3" s="44"/>
       <c r="V3" s="44"/>
       <c r="W3" s="47" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X3" s="47"/>
       <c r="Y3" s="57"/>
@@ -3845,22 +3835,22 @@
     </row>
     <row r="4" ht="14.25" spans="1:26">
       <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>8</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3875,22 +3865,22 @@
       <c r="Q4" s="33"/>
       <c r="R4" s="48"/>
       <c r="S4" s="37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T4" s="35"/>
       <c r="U4" s="35"/>
       <c r="V4" s="36"/>
       <c r="W4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="36" t="s">
+      <c r="Z4" s="36" t="s">
         <v>11</v>
-      </c>
-      <c r="Y4" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="36" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -3900,7 +3890,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
       <c r="F5" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -3911,20 +3901,20 @@
       <c r="M5" s="35"/>
       <c r="N5" s="36"/>
       <c r="O5" s="37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S5" s="51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T5" s="52"/>
       <c r="U5" s="52"/>
       <c r="V5" s="53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W5" s="54"/>
       <c r="X5" s="53"/>
@@ -3938,50 +3928,50 @@
       <c r="D6" s="25"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="I6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="J6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="K6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="L6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="M6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="N6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="P6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="40" t="s">
+      <c r="Q6" s="38" t="s">
         <v>27</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>29</v>
       </c>
       <c r="R6" s="55"/>
       <c r="S6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="24" t="s">
-        <v>32</v>
       </c>
       <c r="V6" s="39"/>
       <c r="W6" s="56"/>
@@ -3989,15 +3979,15 @@
       <c r="Y6" s="60"/>
       <c r="Z6" s="39"/>
     </row>
-    <row r="7" ht="14.25" spans="1:26">
+    <row r="7" spans="1:26">
       <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="11">
         <v>42471</v>
@@ -4077,10 +4067,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
       </c>
       <c r="D8" s="11">
         <v>42472</v>
@@ -4115,33 +4105,33 @@
         <f>K8+L8+M8</f>
         <v>859</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="41" t="e">
         <f>VLOOKUP(C8,[1]社保公积金!B:S,9,FALSE)</f>
-        <v>277.59</v>
-      </c>
-      <c r="P8" s="30">
+        <v>#N/A</v>
+      </c>
+      <c r="P8" s="30" t="e">
         <f>VLOOKUP(C8,[1]社保公积金!B:Q,16,FALSE)</f>
-        <v>216</v>
-      </c>
-      <c r="Q8" s="35">
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" s="35" t="e">
         <f>O8+P8</f>
-        <v>493.59</v>
-      </c>
-      <c r="R8" s="50">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="50" t="e">
         <f>N8-Q8</f>
-        <v>365.41</v>
-      </c>
-      <c r="S8" s="41">
+        <v>#N/A</v>
+      </c>
+      <c r="S8" s="41" t="e">
         <f>ROUND(MAX((R8-3500)*{0.03,0.1,0.2,0.25,0.3,0.36,0.45}-{0,105,555,1005,2755,5505,13505},0),2)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10">
         <v>1</v>
       </c>
-      <c r="V8" s="36">
+      <c r="V8" s="36" t="e">
         <f>S8+U8</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="W8" s="49">
         <v>1</v>
@@ -4149,16 +4139,15 @@
       <c r="X8" s="36">
         <v>1</v>
       </c>
-      <c r="Y8" s="58">
+      <c r="Y8" s="58" t="e">
         <f>R8-V8+W8-X8</f>
-        <v>364.41</v>
+        <v>#N/A</v>
       </c>
       <c r="Z8" s="36"/>
     </row>
     <row r="9" ht="14.25" spans="1:26">
       <c r="A9" s="8"/>
       <c r="B9" s="10"/>
-      <c r="C9"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
       <c r="F9" s="29"/>
@@ -4183,7 +4172,7 @@
       <c r="Y9" s="58"/>
       <c r="Z9" s="36"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" ht="14.25" spans="1:26">
       <c r="A10" s="8"/>
       <c r="B10" s="10"/>
       <c r="D10" s="11"/>
